--- a/data/trans_orig/P2A_senso_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7356B6EC-F579-42DD-B40F-8398336761A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A78AF366-8469-4563-A9B4-A09CEEA3B4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B0C97EF-6111-4571-8563-92F29F2EBA54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FF0B00C-26FD-4ACC-AAE7-43D3B32F7E15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="394">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="398">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,1147 +80,1159 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>90,34%</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFF5801-ED47-4011-93F5-36D90D230E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA92762-BD11-4F84-A95C-CDEA7E51FA1C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2069,7 +2081,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>52</v>
@@ -2123,7 +2135,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>653</v>
@@ -2224,10 +2236,10 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2236,13 +2248,13 @@
         <v>10292</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2251,13 +2263,13 @@
         <v>16471</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2284,13 @@
         <v>512968</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -2287,13 +2299,13 @@
         <v>505350</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -2302,13 +2314,13 @@
         <v>1018318</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,7 +2376,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2376,13 +2388,13 @@
         <v>12754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2391,13 +2403,13 @@
         <v>8345</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2406,13 +2418,13 @@
         <v>21099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2439,13 @@
         <v>373956</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>388</v>
@@ -2442,13 +2454,13 @@
         <v>395641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -2561,7 +2573,7 @@
         <v>38970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>110</v>
@@ -2612,7 +2624,7 @@
         <v>1140338</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>118</v>
@@ -2692,7 +2704,7 @@
         <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -2704,10 +2716,10 @@
         <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>102</v>
@@ -2716,13 +2728,13 @@
         <v>104629</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,16 +2746,16 @@
         <v>3164</v>
       </c>
       <c r="D23" s="7">
-        <v>3225829</v>
+        <v>3225830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>3245</v>
@@ -2752,28 +2764,28 @@
         <v>3325283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>6409</v>
       </c>
       <c r="N23" s="7">
-        <v>6551112</v>
+        <v>6551111</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2797,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2815,7 +2827,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2829,7 +2841,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2851,7 +2863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8FD00E-EA98-4FF5-A8B4-14E08A12F62A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C769117-93A5-4B80-A702-C60F254934D2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2868,7 +2880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2975,13 +2987,13 @@
         <v>6067</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2990,7 +3002,7 @@
         <v>1910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -3005,13 +3017,13 @@
         <v>7977</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3038,13 @@
         <v>448079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>419</v>
@@ -3059,7 +3071,7 @@
         <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>144</v>
@@ -3288,7 +3300,7 @@
         <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>163</v>
@@ -3300,10 +3312,10 @@
         <v>11569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>165</v>
@@ -3342,7 +3354,7 @@
         <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>656</v>
@@ -3351,13 +3363,13 @@
         <v>699281</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>1301</v>
@@ -3455,10 +3467,10 @@
         <v>14803</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>180</v>
@@ -3470,10 +3482,10 @@
         <v>29874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>182</v>
@@ -3506,13 +3518,13 @@
         <v>601396</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1062</v>
@@ -3521,13 +3533,13 @@
         <v>1200942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3595,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3613,10 +3625,10 @@
         <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3664,10 +3676,10 @@
         <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>780</v>
@@ -3753,7 +3765,7 @@
         <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>207</v>
@@ -3768,10 +3780,10 @@
         <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -3780,13 +3792,13 @@
         <v>39509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,7 +3819,7 @@
         <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7">
         <v>672</v>
@@ -3822,7 +3834,7 @@
         <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>1161</v>
@@ -3831,10 +3843,10 @@
         <v>1263103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>219</v>
@@ -3905,10 +3917,10 @@
         <v>57692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>220</v>
@@ -3920,13 +3932,13 @@
         <v>77898</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -3938,10 +3950,10 @@
         <v>190</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3968,13 @@
         <v>3369087</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>3227</v>
@@ -3971,13 +3983,13 @@
         <v>3480411</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>6384</v>
@@ -3989,10 +4001,10 @@
         <v>198</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,7 +4060,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4070,7 +4082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105FC9F-5A50-4E18-BB5E-E99CBE224BA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CEF8E1-DB05-4848-9D30-54A04AB49216}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4087,7 +4099,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4194,7 +4206,7 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -4209,13 +4221,13 @@
         <v>890</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4224,13 +4236,13 @@
         <v>1897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,7 +4257,7 @@
         <v>418456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>173</v>
@@ -4260,10 +4272,10 @@
         <v>394865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4275,10 +4287,10 @@
         <v>813321</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4349,13 +4361,13 @@
         <v>2180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4367,10 +4379,10 @@
         <v>56</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4379,10 +4391,10 @@
         <v>6711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>245</v>
@@ -4403,7 +4415,7 @@
         <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -4418,10 +4430,10 @@
         <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>1139</v>
@@ -4430,13 +4442,13 @@
         <v>1147329</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4516,13 @@
         <v>5499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4519,13 +4531,13 @@
         <v>4690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4534,13 +4546,13 @@
         <v>10189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4567,13 @@
         <v>663598</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>660</v>
@@ -4570,13 +4582,13 @@
         <v>656696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>1293</v>
@@ -4585,10 +4597,10 @@
         <v>1320294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>246</v>
@@ -4662,10 +4674,10 @@
         <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4674,13 +4686,13 @@
         <v>6047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4689,13 +4701,13 @@
         <v>18569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,10 +4725,10 @@
         <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
@@ -4725,13 +4737,13 @@
         <v>643030</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>1167</v>
@@ -4740,13 +4752,13 @@
         <v>1276556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4814,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4814,13 +4826,13 @@
         <v>5744</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4832,10 +4844,10 @@
         <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4844,13 +4856,13 @@
         <v>9045</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4877,13 @@
         <v>472174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>430</v>
@@ -4883,10 +4895,10 @@
         <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>850</v>
@@ -4895,13 +4907,13 @@
         <v>965722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4981,13 @@
         <v>7500</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -4984,13 +4996,13 @@
         <v>18262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4999,13 +5011,13 @@
         <v>25763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5032,13 @@
         <v>583828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>640</v>
@@ -5035,13 +5047,13 @@
         <v>759669</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>1260</v>
@@ -5050,13 +5062,13 @@
         <v>1343496</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5136,13 @@
         <v>34452</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5139,13 +5151,13 @@
         <v>37722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -5154,13 +5166,13 @@
         <v>72174</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5187,13 @@
         <v>3359898</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>3303</v>
@@ -5190,13 +5202,13 @@
         <v>3506820</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>6504</v>
@@ -5205,13 +5217,13 @@
         <v>6866718</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5279,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +5301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4CFC6E-C620-43C6-ABD3-E675646AE5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6477EAA-73B5-407D-AB6E-8AC0F40A9EF6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5306,7 +5318,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5413,13 +5425,13 @@
         <v>160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5428,13 +5440,13 @@
         <v>5406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5443,13 +5455,13 @@
         <v>5566</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,10 +5476,10 @@
         <v>377519</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5479,13 +5491,13 @@
         <v>349551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>374</v>
@@ -5494,13 +5506,13 @@
         <v>727070</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,10 +5583,10 @@
         <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5583,13 +5595,13 @@
         <v>6704</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -5598,13 +5610,13 @@
         <v>17220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,10 +5634,10 @@
         <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5634,13 +5646,13 @@
         <v>492511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -5649,13 +5661,13 @@
         <v>910391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5735,13 @@
         <v>7258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5738,13 +5750,13 @@
         <v>8970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -5753,13 +5765,13 @@
         <v>16227</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,10 +5786,10 @@
         <v>549994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -5789,13 +5801,13 @@
         <v>601477</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>1373</v>
@@ -5804,13 +5816,13 @@
         <v>1151472</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,10 +5893,10 @@
         <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5893,13 +5905,13 @@
         <v>18564</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5908,10 +5920,10 @@
         <v>35488</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>350</v>
@@ -5935,7 +5947,7 @@
         <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>1111</v>
@@ -5944,28 +5956,28 @@
         <v>728697</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>1758</v>
       </c>
       <c r="N14" s="7">
-        <v>1435763</v>
+        <v>1435764</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,7 +6019,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6021,7 +6033,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6039,7 +6051,7 @@
         <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6048,13 +6060,13 @@
         <v>22056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -6066,10 +6078,10 @@
         <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,10 +6096,10 @@
         <v>577598</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>366</v>
@@ -6099,13 +6111,13 @@
         <v>575007</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>1605</v>
@@ -6117,10 +6129,10 @@
         <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6200,13 @@
         <v>24098</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -6203,13 +6215,13 @@
         <v>164869</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -6218,13 +6230,13 @@
         <v>188967</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,16 +6248,16 @@
         <v>996</v>
       </c>
       <c r="D20" s="7">
-        <v>673657</v>
+        <v>673656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>1614</v>
@@ -6254,13 +6266,13 @@
         <v>861768</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>2610</v>
@@ -6287,7 +6299,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6343,7 +6355,7 @@
         <v>81514</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>384</v>
@@ -6361,10 +6373,10 @@
         <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>387</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M22" s="7">
         <v>274</v>
@@ -6373,13 +6385,13 @@
         <v>308081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>389</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6406,13 @@
         <v>3303714</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H23" s="7">
         <v>5180</v>
@@ -6409,28 +6421,28 @@
         <v>3609013</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="M23" s="7">
         <v>8469</v>
       </c>
       <c r="N23" s="7">
-        <v>6912727</v>
+        <v>6912728</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,7 +6484,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6486,7 +6498,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_senso_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A78AF366-8469-4563-A9B4-A09CEEA3B4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F87C327-E4DC-4520-B4FF-D0959630F3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FF0B00C-26FD-4ACC-AAE7-43D3B32F7E15}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{653BBC79-CEBA-44A2-89B6-820365ECA272}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="443">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -146,1093 +146,1228 @@
     <t>1,68%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>98,12%</t>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
 </sst>
 </file>
@@ -1644,8 +1779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA92762-BD11-4F84-A95C-CDEA7E51FA1C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB56B30-5B31-4753-BF09-222A3B206536}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1932,10 +2067,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>4143</v>
+        <v>5097</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1947,10 +2082,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>9505</v>
+        <v>10458</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1983,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I8" s="7">
-        <v>621351</v>
+        <v>620397</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1998,10 +2133,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N8" s="7">
-        <v>1351477</v>
+        <v>1350524</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2087,34 +2222,34 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>5190</v>
+        <v>6341</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7">
+        <v>11724</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>10573</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,43 +2264,43 @@
         <v>633286</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="7">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I11" s="7">
-        <v>684554</v>
+        <v>683403</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1261</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1316688</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="7">
-        <v>1262</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1317839</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,7 +2356,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2233,13 +2368,13 @@
         <v>6179</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2248,13 +2383,13 @@
         <v>10292</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2263,13 +2398,13 @@
         <v>16471</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2419,13 @@
         <v>512968</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -2299,13 +2434,13 @@
         <v>505350</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -2314,13 +2449,13 @@
         <v>1018318</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2511,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2388,13 +2523,13 @@
         <v>12754</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2403,13 +2538,13 @@
         <v>8345</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2418,13 +2553,13 @@
         <v>21099</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2574,13 @@
         <v>373956</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>388</v>
@@ -2454,13 +2589,13 @@
         <v>395641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -2469,13 +2604,13 @@
         <v>769597</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,55 +2666,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>18737</v>
+        <v>13493</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5561</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>20233</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>21</v>
+      </c>
+      <c r="N19" s="7">
+        <v>19055</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>39</v>
-      </c>
-      <c r="N19" s="7">
-        <v>38970</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,49 +2723,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>503</v>
+        <v>288</v>
       </c>
       <c r="D20" s="7">
-        <v>483729</v>
+        <v>279090</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>365</v>
+      </c>
+      <c r="I20" s="7">
+        <v>337373</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="7">
-        <v>642</v>
-      </c>
-      <c r="I20" s="7">
-        <v>656609</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>653</v>
+      </c>
+      <c r="N20" s="7">
+        <v>616462</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1145</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1140338</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,10 +2774,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2654,10 +2789,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2669,10 +2804,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2686,55 +2821,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>50714</v>
+        <v>5244</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <v>14672</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="7">
-        <v>52</v>
-      </c>
-      <c r="I22" s="7">
-        <v>53915</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>18</v>
+      </c>
+      <c r="N22" s="7">
+        <v>19915</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="7">
-        <v>102</v>
-      </c>
-      <c r="N22" s="7">
-        <v>104629</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,49 +2878,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3164</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3225830</v>
+        <v>204639</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="7">
+        <v>277</v>
+      </c>
+      <c r="I23" s="7">
+        <v>319236</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="7">
-        <v>3245</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3325283</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>492</v>
+      </c>
+      <c r="N23" s="7">
+        <v>523876</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="7">
-        <v>6409</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6551111</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,63 +2929,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>50714</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="7">
+        <v>54</v>
+      </c>
+      <c r="I25" s="7">
+        <v>56019</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="7">
+        <v>104</v>
+      </c>
+      <c r="N25" s="7">
+        <v>106733</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3164</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3225829</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3243</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3323178</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6407</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6549008</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2863,8 +3154,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C769117-93A5-4B80-A702-C60F254934D2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7E67BA-C630-46E9-98BA-E573B5599AF6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2880,7 +3171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2987,13 +3278,13 @@
         <v>6067</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3002,7 +3293,7 @@
         <v>1910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -3017,10 +3308,10 @@
         <v>7977</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3038,10 +3329,10 @@
         <v>448079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3053,7 +3344,7 @@
         <v>428320</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>28</v>
@@ -3068,13 +3359,13 @@
         <v>876399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3433,13 @@
         <v>4687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3157,13 +3448,13 @@
         <v>14501</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3172,13 +3463,13 @@
         <v>19188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +3484,10 @@
         <v>682400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>43</v>
@@ -3208,13 +3499,13 @@
         <v>595754</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>1221</v>
@@ -3223,13 +3514,13 @@
         <v>1278154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3588,13 @@
         <v>7280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3312,13 +3603,13 @@
         <v>11569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3327,13 +3618,13 @@
         <v>18849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3639,13 @@
         <v>674583</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>656</v>
@@ -3363,13 +3654,13 @@
         <v>699281</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>1301</v>
@@ -3378,13 +3669,13 @@
         <v>1373863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,7 +3731,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3452,13 +3743,13 @@
         <v>15071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3467,13 +3758,13 @@
         <v>14803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3482,13 +3773,13 @@
         <v>29874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3794,13 @@
         <v>599546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -3518,13 +3809,13 @@
         <v>601396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>1062</v>
@@ -3533,13 +3824,13 @@
         <v>1200942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3886,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3607,13 +3898,13 @@
         <v>8334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3622,13 +3913,13 @@
         <v>11859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3637,13 +3928,13 @@
         <v>20193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3949,13 @@
         <v>421095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>395</v>
@@ -3673,13 +3964,13 @@
         <v>435941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>780</v>
@@ -3688,13 +3979,13 @@
         <v>857036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,55 +4041,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>16254</v>
+        <v>5950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>23256</v>
+        <v>11566</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>39509</v>
+        <v>17517</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,49 +4098,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>489</v>
+        <v>277</v>
       </c>
       <c r="D20" s="7">
-        <v>543383</v>
+        <v>303836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
-        <v>672</v>
+        <v>333</v>
       </c>
       <c r="I20" s="7">
-        <v>719719</v>
+        <v>342430</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
-        <v>1161</v>
+        <v>610</v>
       </c>
       <c r="N20" s="7">
-        <v>1263103</v>
+        <v>646265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,10 +4149,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3873,10 +4164,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3888,10 +4179,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3905,55 +4196,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>57692</v>
+        <v>10303</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H22" s="7">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>77898</v>
+        <v>11690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>135590</v>
+        <v>21993</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,49 +4253,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3157</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>3369087</v>
+        <v>239548</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="H23" s="7">
-        <v>3227</v>
+        <v>339</v>
       </c>
       <c r="I23" s="7">
-        <v>3480411</v>
+        <v>377289</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="M23" s="7">
-        <v>6384</v>
+        <v>551</v>
       </c>
       <c r="N23" s="7">
-        <v>6849498</v>
+        <v>616837</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,63 +4304,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7">
+        <v>57692</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="7">
+        <v>71</v>
+      </c>
+      <c r="I25" s="7">
+        <v>77898</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" s="7">
+        <v>123</v>
+      </c>
+      <c r="N25" s="7">
+        <v>135590</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3157</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3369087</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3227</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3480411</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6384</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6849498</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4082,8 +4529,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CEF8E1-DB05-4848-9D30-54A04AB49216}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFFA588-8148-431F-829A-36FA6BFA340A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4099,7 +4546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4206,13 +4653,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4221,13 +4668,13 @@
         <v>890</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4236,13 +4683,13 @@
         <v>1897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,10 +4704,10 @@
         <v>418456</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4272,10 +4719,10 @@
         <v>394865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4287,10 +4734,10 @@
         <v>813321</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4361,13 +4808,13 @@
         <v>2180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4376,13 +4823,13 @@
         <v>4532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4391,13 +4838,13 @@
         <v>6711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,10 +4859,10 @@
         <v>588316</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -4427,13 +4874,13 @@
         <v>559012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>1139</v>
@@ -4442,13 +4889,13 @@
         <v>1147329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4963,13 @@
         <v>5499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4531,10 +4978,10 @@
         <v>4690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -4546,13 +4993,13 @@
         <v>10189</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +5014,13 @@
         <v>663598</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>660</v>
@@ -4582,13 +5029,13 @@
         <v>656696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1293</v>
@@ -4597,13 +5044,13 @@
         <v>1320294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +5106,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4671,13 +5118,13 @@
         <v>12522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4686,13 +5133,13 @@
         <v>6047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4701,13 +5148,13 @@
         <v>18569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +5169,13 @@
         <v>633526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>596</v>
@@ -4737,13 +5184,13 @@
         <v>643030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>1167</v>
@@ -4752,13 +5199,13 @@
         <v>1276556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +5261,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4826,13 +5273,13 @@
         <v>5744</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4841,13 +5288,13 @@
         <v>3301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4856,13 +5303,13 @@
         <v>9045</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +5324,13 @@
         <v>472174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>430</v>
@@ -4892,13 +5339,13 @@
         <v>493548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>850</v>
@@ -4907,13 +5354,13 @@
         <v>965722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,55 +5416,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>7500</v>
+        <v>3629</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>18262</v>
+        <v>5977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>25763</v>
+        <v>9606</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,49 +5473,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>620</v>
+        <v>322</v>
       </c>
       <c r="D20" s="7">
-        <v>583828</v>
+        <v>330701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
-        <v>640</v>
+        <v>348</v>
       </c>
       <c r="I20" s="7">
-        <v>759669</v>
+        <v>371785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
-        <v>1260</v>
+        <v>670</v>
       </c>
       <c r="N20" s="7">
-        <v>1343496</v>
+        <v>702486</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,10 +5524,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5092,10 +5539,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5107,10 +5554,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5124,55 +5571,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>34452</v>
+        <v>3871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>37722</v>
+        <v>12286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>72174</v>
+        <v>16156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,49 +5628,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3201</v>
+        <v>298</v>
       </c>
       <c r="D23" s="7">
-        <v>3359898</v>
+        <v>253127</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
-        <v>3303</v>
+        <v>292</v>
       </c>
       <c r="I23" s="7">
-        <v>3506820</v>
+        <v>387883</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
-        <v>6504</v>
+        <v>590</v>
       </c>
       <c r="N23" s="7">
-        <v>6866718</v>
+        <v>641011</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,63 +5679,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>34452</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="7">
+        <v>35</v>
+      </c>
+      <c r="I25" s="7">
+        <v>37722</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M25" s="7">
+        <v>65</v>
+      </c>
+      <c r="N25" s="7">
+        <v>72174</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3201</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3359898</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3303</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3506820</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6504</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6866718</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5301,8 +5904,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6477EAA-73B5-407D-AB6E-8AC0F40A9EF6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC091EFA-747B-47F5-8A29-332D20734EF0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5318,7 +5921,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5422,46 +6025,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4443</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M4" s="7">
         <v>4</v>
       </c>
-      <c r="I4" s="7">
-        <v>5406</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
       <c r="N4" s="7">
-        <v>5566</v>
+        <v>4603</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,46 +6076,46 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>377519</v>
+        <v>399826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>349551</v>
+        <v>308757</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N5" s="7">
-        <v>727070</v>
+        <v>708584</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,7 +6127,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5539,7 +6142,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5554,7 +6157,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5577,46 +6180,46 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>10516</v>
+        <v>10494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>6704</v>
+        <v>4829</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>17220</v>
+        <v>15323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,46 +6231,46 @@
         <v>295</v>
       </c>
       <c r="D8" s="7">
-        <v>417880</v>
+        <v>413053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>492511</v>
+        <v>507264</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N8" s="7">
-        <v>910391</v>
+        <v>920317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,7 +6282,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5694,7 +6297,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5709,7 +6312,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5732,46 +6335,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7258</v>
+        <v>7186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>8970</v>
+        <v>7687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>16227</v>
+        <v>14873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,46 +6386,46 @@
         <v>540</v>
       </c>
       <c r="D11" s="7">
-        <v>549994</v>
+        <v>529152</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>338</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="I11" s="7">
-        <v>601477</v>
+        <v>584315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="N11" s="7">
-        <v>1151472</v>
+        <v>1113467</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +6437,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5849,7 +6452,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5864,7 +6467,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5878,55 +6481,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>16924</v>
+        <v>15190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>18564</v>
+        <v>16683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>35488</v>
+        <v>31873</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,49 +6538,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D14" s="7">
-        <v>707066</v>
+        <v>872596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="I14" s="7">
-        <v>728697</v>
+        <v>696198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="N14" s="7">
-        <v>1435764</v>
+        <v>1568794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,7 +6592,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6004,7 +6607,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6019,7 +6622,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6033,7 +6636,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6042,46 +6645,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>22559</v>
+        <v>21259</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>22056</v>
+        <v>19871</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>44614</v>
+        <v>41130</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,46 +6696,46 @@
         <v>640</v>
       </c>
       <c r="D17" s="7">
-        <v>577598</v>
+        <v>539975</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I17" s="7">
-        <v>575007</v>
+        <v>528034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="N17" s="7">
-        <v>1152606</v>
+        <v>1068009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,7 +6747,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6159,7 +6762,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6174,7 +6777,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6188,55 +6791,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>24098</v>
+        <v>12049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I19" s="7">
-        <v>164869</v>
+        <v>222866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="N19" s="7">
-        <v>188967</v>
+        <v>234915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,49 +6848,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>996</v>
+        <v>552</v>
       </c>
       <c r="D20" s="7">
-        <v>673656</v>
+        <v>356116</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
-        <v>1614</v>
+        <v>792</v>
       </c>
       <c r="I20" s="7">
-        <v>861768</v>
+        <v>385502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
-        <v>2610</v>
+        <v>1344</v>
       </c>
       <c r="N20" s="7">
-        <v>1535425</v>
+        <v>741618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,10 +6899,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6311,10 +6914,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6326,10 +6929,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6343,55 +6946,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>81514</v>
+        <v>10417</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7">
-        <v>226568</v>
+        <v>31075</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="N22" s="7">
-        <v>308081</v>
+        <v>41491</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>92</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,49 +7003,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3289</v>
+        <v>444</v>
       </c>
       <c r="D23" s="7">
-        <v>3303714</v>
+        <v>272342</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
-        <v>5180</v>
+        <v>822</v>
       </c>
       <c r="I23" s="7">
-        <v>3609013</v>
+        <v>394756</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
-        <v>8469</v>
+        <v>1266</v>
       </c>
       <c r="N23" s="7">
-        <v>6912728</v>
+        <v>667099</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,63 +7054,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>86</v>
+      </c>
+      <c r="D25" s="7">
+        <v>76755</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H25" s="7">
+        <v>182</v>
+      </c>
+      <c r="I25" s="7">
+        <v>307454</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M25" s="7">
+        <v>268</v>
+      </c>
+      <c r="N25" s="7">
+        <v>384209</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3290</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3383062</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5185</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3404826</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8475</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6787888</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
